--- a/data/trans_dic/P15_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con convivientes no familiares con COVID-19</t>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,57 +662,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,37</t>
+          <t>0,4; 5,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,45</t>
+          <t>0,25; 2,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,45</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,29</t>
+          <t>0,39; 3,49</t>
         </is>
       </c>
     </row>
@@ -806,12 +807,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -846,12 +847,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
     </row>
@@ -946,7 +947,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -986,7 +987,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1082,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>0,44%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,26</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,21</t>
+          <t>0,2; 2,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,71</t>
+          <t>0,12; 1,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,15</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,1</t>
+          <t>0,21; 1,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8447</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11037</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15016</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19547</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14052</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19192</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11924</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1613; 21903</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11883</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2356; 22660</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11314</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3084; 27542</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8502</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9250</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8447</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12641</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 18346</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 23597</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12174</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17638</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12219</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1659; 21365</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13907</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2388; 25263</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8761</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3329; 27085</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>